--- a/src/docs/calc.xlsx
+++ b/src/docs/calc.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos/coding/Javascript/my-weather-app/src/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E8A3C5-E057-504D-9128-9DCCFAC0EF61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94806E6F-F30E-D849-BCB1-CCAEDE19ACEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="-19700" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{4BD62E2C-E6AF-494B-B1AF-612A2DAA778C}"/>
+    <workbookView xWindow="4120" yWindow="-19700" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{4BD62E2C-E6AF-494B-B1AF-612A2DAA778C}"/>
   </bookViews>
   <sheets>
     <sheet name="Clear and Snowy" sheetId="2" r:id="rId1"/>
     <sheet name="Atmosphere" sheetId="3" r:id="rId2"/>
-    <sheet name="Thunderstorme" sheetId="5" r:id="rId3"/>
-    <sheet name="Drizzle" sheetId="6" r:id="rId4"/>
-    <sheet name="Rain" sheetId="8" r:id="rId5"/>
+    <sheet name="Drizzle" sheetId="6" r:id="rId3"/>
+    <sheet name="Rain" sheetId="8" r:id="rId4"/>
+    <sheet name="Thunderstorme" sheetId="5" r:id="rId5"/>
+    <sheet name="Snow" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
   <si>
     <t>DRAWING equations</t>
   </si>
@@ -290,7 +291,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,6 +302,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1186,374 +1188,6 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Thunderstorme!$C$6:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>202</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Thunderstorme!$B$6:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-65.15625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-70.131374378109456</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA25-7045-A4F2-8A626714A174}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2046325199"/>
-        <c:axId val="2046659919"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2046325199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2046659919"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2046659919"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2046325199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-AR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-AR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
               <c:f>Drizzle!$C$6:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1798,7 +1432,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2208,6 +1842,784 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Thunderstorme!$C$6:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Thunderstorme!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-65.15625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-70.131374378109456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA25-7045-A4F2-8A626714A174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2046325199"/>
+        <c:axId val="2046659919"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2046325199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046659919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2046659919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046325199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Snow!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Snow!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-121.42561983471074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-122.85123966942149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-124.77272727272728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-126.19834710743802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-127.62396694214877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-129.11157024793388</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-130.53719008264463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-132.14876033057851</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-133.57438016528926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5411-3149-8CB3-1AE9CD3E8486}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2046325199"/>
+        <c:axId val="2046659919"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2046325199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046659919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2046659919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046325199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2408,6 +2820,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4421,6 +4873,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6335,703 +7290,6 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3260EB-5EEF-3E4C-914C-DA9B79DD5D30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A543F03-4ED6-8342-B5CE-5A90B1AEFD32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3302000" y="8153400"/>
-          <a:ext cx="254000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15337A48-5D21-CD4D-B4A9-D281D3A67008}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3302000" y="8382000"/>
-          <a:ext cx="254000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E952BA0B-03AE-B64D-ABE1-62B46937A3A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3302000" y="8610600"/>
-          <a:ext cx="254000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8182D563-8483-214D-AE24-2077A80EB97D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3302000" y="8839200"/>
-          <a:ext cx="254000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3832D5F-ED25-6B4A-92EB-05193BBC44F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3302000" y="9067800"/>
-          <a:ext cx="254000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9132ED4D-9C75-E84E-9FE0-C1731F08B678}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3302000" y="9296400"/>
-          <a:ext cx="254000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2076FFF-FF68-0847-B535-E02C464AD25B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3302000" y="9525000"/>
-          <a:ext cx="254000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2066CF30-CACB-2A48-AE6F-7061EE5018BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3302000" y="9753600"/>
-          <a:ext cx="254000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD075683-3E1F-3A46-AEF3-C9816E39538A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3302000" y="9982200"/>
-          <a:ext cx="254000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F9BD7C-1EBB-6E4C-A420-A950F0F31107}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3302000" y="10210800"/>
-          <a:ext cx="254000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>277450</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>241299</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBF2047-6007-744A-8B55-D5990040ABD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4404950" y="7569200"/>
-          <a:ext cx="7507649" cy="6870700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B7126B-CD75-5447-AD3B-748A3E2DF9B0}"/>
             </a:ext>
           </a:extLst>
@@ -7709,7 +7967,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8406,6 +8664,1400 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3260EB-5EEF-3E4C-914C-DA9B79DD5D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A543F03-4ED6-8342-B5CE-5A90B1AEFD32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8153400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15337A48-5D21-CD4D-B4A9-D281D3A67008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8382000"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E952BA0B-03AE-B64D-ABE1-62B46937A3A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8610600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8182D563-8483-214D-AE24-2077A80EB97D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8839200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3832D5F-ED25-6B4A-92EB-05193BBC44F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9067800"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9132ED4D-9C75-E84E-9FE0-C1731F08B678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9296400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2076FFF-FF68-0847-B535-E02C464AD25B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9525000"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2066CF30-CACB-2A48-AE6F-7061EE5018BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9753600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD075683-3E1F-3A46-AEF3-C9816E39538A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9982200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F9BD7C-1EBB-6E4C-A420-A950F0F31107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="10210800"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>241299</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBF2047-6007-744A-8B55-D5990040ABD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4404950" y="7569200"/>
+          <a:ext cx="7507649" cy="6870700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDEEF91-BF62-3546-9B2D-CE91ED714033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD13CF6-D631-EB4E-813C-5C7AE27A7B48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8153400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3684A4-98DF-3F42-BFC2-2785AFD2261B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8382000"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AC29A1-C1F1-BE4A-8761-BF5FF11051A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8610600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B71ECF-803D-154F-9A64-C4A029E4253E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8839200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0BACA2-A2C4-1C48-905A-DFAFCEA7E04D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9067800"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C551DC5-6DC2-F649-BAF7-5D8C12C4956D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9296400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45F8D21-B6F3-3B49-9E59-0BC1F0D7A4B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9525000"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA00F4F7-90C0-DE45-9E92-94D9216B7432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9753600"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA513056-4ABB-ED4D-BE20-D8D83D1ABC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9982200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32101CCE-B6AD-C54C-ABD4-D65AA4AA69AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="10210800"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>378114</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>355599</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4751697C-CBE8-794A-856D-40F734EC9162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331114" y="7797800"/>
+          <a:ext cx="7394285" cy="7759700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8905,38 +10557,38 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="18">
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="18">
-      <c r="B71" s="11">
+      <c r="B71" s="12">
         <v>800</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="18">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="10" t="s">
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8946,104 +10598,104 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="18">
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="18">
-      <c r="B75" s="11">
+      <c r="B75" s="12">
         <v>801</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="18">
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="10" t="s">
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="18">
-      <c r="B77" s="11">
+      <c r="B77" s="12">
         <v>802</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="18">
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="10" t="s">
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="18">
-      <c r="B79" s="11">
+      <c r="B79" s="12">
         <v>803</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="18">
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="10" t="s">
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="18">
-      <c r="B81" s="11">
+      <c r="B81" s="12">
         <v>804</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="18">
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="10" t="s">
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -9146,7 +10798,7 @@
         <f>C6*C6</f>
         <v>491401</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <v>1.82322848</v>
       </c>
       <c r="N6">
@@ -9177,7 +10829,7 @@
         <f>C7*C7</f>
         <v>505521</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="9">
         <v>1.82322848</v>
       </c>
       <c r="N7">
@@ -9208,7 +10860,7 @@
         <f>C8*C8</f>
         <v>519841</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <v>1.82322848</v>
       </c>
       <c r="N8">
@@ -9239,7 +10891,7 @@
         <f>C9*C9</f>
         <v>534361</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="9">
         <v>1.82322848</v>
       </c>
       <c r="N9">
@@ -9270,7 +10922,7 @@
         <f>C10*C10</f>
         <v>549081</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="9">
         <v>1.82322848</v>
       </c>
       <c r="N10">
@@ -9301,7 +10953,7 @@
         <f>C11*C11</f>
         <v>564001</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="9">
         <v>1.82322848</v>
       </c>
       <c r="N11">
@@ -9332,7 +10984,7 @@
         <f>C12*C12</f>
         <v>579121</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="9">
         <v>1.82322848</v>
       </c>
       <c r="N12">
@@ -9363,7 +11015,7 @@
         <f>C13*C13</f>
         <v>580644</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="9">
         <v>1.82322848</v>
       </c>
       <c r="N13">
@@ -9394,7 +11046,7 @@
         <f>C14*C14</f>
         <v>594441</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="9">
         <v>1.82322848</v>
       </c>
       <c r="N14">
@@ -9424,7 +11076,7 @@
         <f>C15*C15</f>
         <v>609961</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="9">
         <v>1.82322848</v>
       </c>
       <c r="N15">
@@ -9579,156 +11231,156 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="18">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="18">
-      <c r="B41" s="10">
+      <c r="B41" s="11">
         <v>701</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="18">
-      <c r="B42" s="10">
+      <c r="B42" s="11">
         <v>711</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="18">
-      <c r="B43" s="10">
+      <c r="B43" s="11">
         <v>721</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="18">
-      <c r="B44" s="10">
+      <c r="B44" s="11">
         <v>731</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="18">
-      <c r="B45" s="10">
+      <c r="B45" s="11">
         <v>741</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="18">
-      <c r="B46" s="10">
+      <c r="B46" s="11">
         <v>751</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="18">
-      <c r="B47" s="10">
+      <c r="B47" s="11">
         <v>761</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="18">
-      <c r="B48" s="10">
+      <c r="B48" s="11">
         <v>762</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="18">
-      <c r="B49" s="10">
+      <c r="B49" s="11">
         <v>771</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="18">
-      <c r="B50" s="10">
+      <c r="B50" s="11">
         <v>781</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9743,602 +11395,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C305C65-80FB-7A44-A9EB-C88174E1D296}">
-  <dimension ref="A1:P50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:P14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6" s="3">
-        <v>-60</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="K6" s="7">
-        <v>2.0794367170000001E-2</v>
-      </c>
-      <c r="L6">
-        <f>C6*C6</f>
-        <v>40000</v>
-      </c>
-      <c r="M6" s="8">
-        <v>-10.08168264</v>
-      </c>
-      <c r="N6">
-        <f>C6</f>
-        <v>200</v>
-      </c>
-      <c r="O6">
-        <v>1121.5352809999999</v>
-      </c>
-      <c r="P6" s="2">
-        <f>(K6*L6)+(M6*N6)+O6</f>
-        <v>-63.026560199999949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="B7" s="3">
-        <f>B6-((1+D7)*$C$18)</f>
-        <v>-65.15625</v>
-      </c>
-      <c r="C7">
-        <v>201</v>
-      </c>
-      <c r="D7" s="13">
-        <f>(C7-C6)/(C15-C6)</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="K7" s="7">
-        <v>2.0794367170000001E-2</v>
-      </c>
-      <c r="L7">
-        <f>C7*C7</f>
-        <v>40401</v>
-      </c>
-      <c r="M7" s="8">
-        <v>-10.08168264</v>
-      </c>
-      <c r="N7">
-        <f>C7</f>
-        <v>201</v>
-      </c>
-      <c r="O7">
-        <v>1121.5352809999999</v>
-      </c>
-      <c r="P7" s="2">
-        <f>(K7*L7)+(M7*N7)+O7</f>
-        <v>-64.769701604830061</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="3">
-        <f t="shared" ref="B8:B14" si="0">B7-((1+D8)*$C$18)</f>
-        <v>-70.131374378109456</v>
-      </c>
-      <c r="C8">
-        <v>202</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" ref="D8:D15" si="1">(C8-C7)/(C16-C7)</f>
-        <v>-4.9751243781094526E-3</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="K8" s="7">
-        <v>2.0794367170000001E-2</v>
-      </c>
-      <c r="L8">
-        <f>C8*C8</f>
-        <v>40804</v>
-      </c>
-      <c r="M8" s="8">
-        <v>-10.08168264</v>
-      </c>
-      <c r="N8">
-        <f>C8</f>
-        <v>202</v>
-      </c>
-      <c r="O8">
-        <v>1121.5352809999999</v>
-      </c>
-      <c r="P8" s="2">
-        <f>(K8*L8)+(M8*N8)+O8</f>
-        <v>-66.471254275320007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>-74.896080260462398</v>
-      </c>
-      <c r="C9">
-        <v>210</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="1"/>
-        <v>-4.7058823529411764E-2</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="K9" s="7">
-        <v>2.0794367170000001E-2</v>
-      </c>
-      <c r="L9">
-        <f>C9*C9</f>
-        <v>44100</v>
-      </c>
-      <c r="M9" s="8">
-        <v>-10.08168264</v>
-      </c>
-      <c r="N9">
-        <f>C9</f>
-        <v>210</v>
-      </c>
-      <c r="O9">
-        <v>1121.5352809999999</v>
-      </c>
-      <c r="P9" s="2">
-        <f>(K9*L9)+(M9*N9)+O9</f>
-        <v>-78.586481202999948</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>-79.871690016559953</v>
-      </c>
-      <c r="C10">
-        <v>211</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" si="1"/>
-        <v>-4.8780487804878049E-3</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="K10" s="7">
-        <v>2.0794367170000001E-2</v>
-      </c>
-      <c r="L10">
-        <f>C10*C10</f>
-        <v>44521</v>
-      </c>
-      <c r="M10" s="8">
-        <v>-10.08168264</v>
-      </c>
-      <c r="N10">
-        <f>C10</f>
-        <v>211</v>
-      </c>
-      <c r="O10">
-        <v>1121.5352809999999</v>
-      </c>
-      <c r="P10" s="2">
-        <f>(K10*L10)+(M10*N10)+O10</f>
-        <v>-79.913735264429988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>-84.847993334095491</v>
-      </c>
-      <c r="C11">
-        <v>212</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="1"/>
-        <v>-4.7393364928909956E-3</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="K11" s="7">
-        <v>2.0794367170000001E-2</v>
-      </c>
-      <c r="L11">
-        <f>C11*C11</f>
-        <v>44944</v>
-      </c>
-      <c r="M11" s="8">
-        <v>-10.08168264</v>
-      </c>
-      <c r="N11">
-        <f>C11</f>
-        <v>212</v>
-      </c>
-      <c r="O11">
-        <v>1121.5352809999999</v>
-      </c>
-      <c r="P11" s="2">
-        <f>(K11*L11)+(M11*N11)+O11</f>
-        <v>-81.199400591519861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>-89.635729183152094</v>
-      </c>
-      <c r="C12">
-        <v>221</v>
-      </c>
-      <c r="D12" s="13">
-        <f t="shared" si="1"/>
-        <v>-4.2452830188679243E-2</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="K12" s="7">
-        <v>2.0794367170000001E-2</v>
-      </c>
-      <c r="L12">
-        <f>C12*C12</f>
-        <v>48841</v>
-      </c>
-      <c r="M12" s="8">
-        <v>-10.08168264</v>
-      </c>
-      <c r="N12">
-        <f>C12</f>
-        <v>221</v>
-      </c>
-      <c r="O12">
-        <v>1121.5352809999999</v>
-      </c>
-      <c r="P12" s="2">
-        <f>(K12*L12)+(M12*N12)+O12</f>
-        <v>-90.8988954900301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>-94.432109273649829</v>
-      </c>
-      <c r="C13">
-        <v>230</v>
-      </c>
-      <c r="D13" s="13">
-        <f t="shared" si="1"/>
-        <v>-4.072398190045249E-2</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="K13" s="7">
-        <v>2.0794367170000001E-2</v>
-      </c>
-      <c r="L13">
-        <f>C13*C13</f>
-        <v>52900</v>
-      </c>
-      <c r="M13" s="8">
-        <v>-10.08168264</v>
-      </c>
-      <c r="N13">
-        <f>C13</f>
-        <v>230</v>
-      </c>
-      <c r="O13">
-        <v>1121.5352809999999</v>
-      </c>
-      <c r="P13" s="2">
-        <f>(K13*L13)+(M13*N13)+O13</f>
-        <v>-97.229702907000046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>-99.410370143215047</v>
-      </c>
-      <c r="C14">
-        <v>231</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" si="1"/>
-        <v>-4.3478260869565218E-3</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="K14" s="7">
-        <v>2.1188039660000001E-2</v>
-      </c>
-      <c r="L14">
-        <f>C14*C14</f>
-        <v>53361</v>
-      </c>
-      <c r="M14" s="8">
-        <v>-10.38623254</v>
-      </c>
-      <c r="N14">
-        <f>C14</f>
-        <v>231</v>
-      </c>
-      <c r="O14">
-        <v>1158.5590709999999</v>
-      </c>
-      <c r="P14" s="2">
-        <f>(K14*L14)+(M14*N14)+O14</f>
-        <v>-110.04566144274008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C15">
-        <v>232</v>
-      </c>
-      <c r="D15" s="13">
-        <f t="shared" si="1"/>
-        <v>-3.2258064516129031E-2</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="K15" s="7">
-        <v>2.1188039660000001E-2</v>
-      </c>
-      <c r="L15">
-        <f>C15*C15</f>
-        <v>53824</v>
-      </c>
-      <c r="M15" s="8">
-        <v>-10.38623254</v>
-      </c>
-      <c r="N15">
-        <f>C15</f>
-        <v>232</v>
-      </c>
-      <c r="O15">
-        <v>1158.5590709999999</v>
-      </c>
-      <c r="P15" s="2">
-        <f>(K15*L15)+(M15*N15)+O15</f>
-        <v>-110.62183162016004</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="3">
-        <f>-B15-B6</f>
-        <v>160</v>
-      </c>
-      <c r="C17">
-        <f>C15-C6</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18">
-        <f>B17/C17</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20">
-        <f>40/9</f>
-        <v>4.4444444444444446</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="4"/>
-      <c r="C23">
-        <v>200</v>
-      </c>
-      <c r="D23" s="4">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="4"/>
-      <c r="C24">
-        <v>201</v>
-      </c>
-      <c r="D24" s="4">
-        <v>-65.15625</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="4"/>
-      <c r="C25">
-        <v>202</v>
-      </c>
-      <c r="D25" s="4">
-        <v>-70.131374378109456</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="4"/>
-      <c r="C26">
-        <v>210</v>
-      </c>
-      <c r="D26" s="4">
-        <v>-74.896080260462398</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="4"/>
-      <c r="C27">
-        <v>211</v>
-      </c>
-      <c r="D27" s="4">
-        <v>-79.871690016559953</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="4"/>
-      <c r="C28">
-        <v>212</v>
-      </c>
-      <c r="D28" s="4">
-        <v>-84.847993334095491</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="4"/>
-      <c r="C29">
-        <v>221</v>
-      </c>
-      <c r="D29" s="4">
-        <v>-89.635729183152094</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="4"/>
-      <c r="C30">
-        <v>230</v>
-      </c>
-      <c r="D30" s="4">
-        <v>-94.432109273649829</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="4"/>
-      <c r="C31">
-        <v>231</v>
-      </c>
-      <c r="D31" s="4">
-        <v>-99.410370143215047</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="C32">
-        <v>232</v>
-      </c>
-      <c r="D32">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16">
-      <c r="P37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16">
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="2:16" ht="18">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="2:16" ht="18">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="2:16" ht="18">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="2:16" ht="18">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="2:16" ht="18">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="2:16" ht="18">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="2:16" ht="18">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="2:16" ht="18">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="2:16" ht="18">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="2:5" ht="18">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="2:5" ht="18">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{3266D504-249A-F946-B1AE-FDF4CBECDA8B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B61678-9879-B648-A345-0A85B7DEE19E}">
   <dimension ref="A1:P50"/>
   <sheetViews>
@@ -10408,7 +11464,7 @@
         <f>C6*C6</f>
         <v>90000</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <v>30.486464550000001</v>
       </c>
       <c r="N6">
@@ -10431,7 +11487,7 @@
       <c r="C7">
         <v>301</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <f>(C7-C6)/($C$14-$C$6)</f>
         <v>4.7619047619047616E-2</v>
       </c>
@@ -10443,7 +11499,7 @@
         <f>C7*C7</f>
         <v>90601</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="9">
         <v>30.486464550000001</v>
       </c>
       <c r="N7">
@@ -10466,7 +11522,7 @@
       <c r="C8">
         <v>302</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <f>(C8-C7)/($C$14-$C$6)</f>
         <v>4.7619047619047616E-2</v>
       </c>
@@ -10478,7 +11534,7 @@
         <f>C8*C8</f>
         <v>91204</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <v>30.486464550000001</v>
       </c>
       <c r="N8">
@@ -10501,7 +11557,7 @@
       <c r="C9">
         <v>310</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <f t="shared" ref="D8:D14" si="1">(C9-C8)/($C$14-$C$6)</f>
         <v>0.38095238095238093</v>
       </c>
@@ -10513,7 +11569,7 @@
         <f>C9*C9</f>
         <v>96100</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="9">
         <v>30.486464550000001</v>
       </c>
       <c r="N9">
@@ -10536,7 +11592,7 @@
       <c r="C10">
         <v>311</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <f t="shared" si="1"/>
         <v>4.7619047619047616E-2</v>
       </c>
@@ -10548,7 +11604,7 @@
         <f>C10*C10</f>
         <v>96721</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="9">
         <v>30.486464550000001</v>
       </c>
       <c r="N10">
@@ -10571,7 +11627,7 @@
       <c r="C11">
         <v>312</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <f t="shared" si="1"/>
         <v>4.7619047619047616E-2</v>
       </c>
@@ -10583,7 +11639,7 @@
         <f>C11*C11</f>
         <v>97344</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="9">
         <v>30.486464550000001</v>
       </c>
       <c r="N11">
@@ -10606,7 +11662,7 @@
       <c r="C12">
         <v>313</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <f t="shared" si="1"/>
         <v>4.7619047619047616E-2</v>
       </c>
@@ -10618,7 +11674,7 @@
         <f>C12*C12</f>
         <v>97969</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="9">
         <v>30.486464550000001</v>
       </c>
       <c r="N12">
@@ -10641,7 +11697,7 @@
       <c r="C13">
         <v>314</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <f t="shared" si="1"/>
         <v>4.7619047619047616E-2</v>
       </c>
@@ -10653,7 +11709,7 @@
         <f>C13*C13</f>
         <v>98596</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="9">
         <v>30.486464550000001</v>
       </c>
       <c r="N13">
@@ -10675,7 +11731,7 @@
       <c r="C14">
         <v>321</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <f>(C14-C13)/($C$14-$C$6)</f>
         <v>0.33333333333333331</v>
       </c>
@@ -10687,7 +11743,7 @@
         <f>C14*C14</f>
         <v>103041</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="9">
         <v>30.486464550000001</v>
       </c>
       <c r="N14">
@@ -10704,10 +11760,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="3"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="I15" s="1"/>
       <c r="K15" s="7"/>
-      <c r="M15" s="8"/>
+      <c r="M15" s="9"/>
       <c r="P15" s="2"/>
     </row>
     <row r="17" spans="2:4">
@@ -10849,70 +11905,70 @@
       <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:16" ht="18">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="2:16" ht="18">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="2:16" ht="18">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="2:16" ht="18">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="2:16" ht="18">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="2:16" ht="18">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="2:16" ht="18">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="2:16" ht="18">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="2:16" ht="18">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="2:5" ht="18">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="2:5" ht="18">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10923,11 +11979,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041DDD46-BCA2-344A-A3E9-391ECC7A8898}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
@@ -10993,7 +12049,7 @@
         <f>C6*C6</f>
         <v>250000</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <v>-12.52634698</v>
       </c>
       <c r="N6">
@@ -11009,7 +12065,7 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <f>(B7-B6)/(-$B$15+$B$6)</f>
         <v>-3.0176899063475492E-2</v>
       </c>
@@ -11020,7 +12076,7 @@
       <c r="C7">
         <v>501</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <f>(C7-C6)/($C$15-$C$6)</f>
         <v>3.2258064516129031E-2</v>
       </c>
@@ -11032,7 +12088,7 @@
         <f>C7*C7</f>
         <v>251001</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="9">
         <v>-12.52634698</v>
       </c>
       <c r="N7">
@@ -11048,7 +12104,7 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <f t="shared" ref="A8:A15" si="0">(B8-B7)/(-$B$15+$B$6)</f>
         <v>-3.1150347420361844E-2</v>
       </c>
@@ -11059,7 +12115,7 @@
       <c r="C8">
         <v>502</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <f t="shared" ref="D8:D15" si="2">(C8-C7)/($C$15-$C$6)</f>
         <v>3.2258064516129031E-2</v>
       </c>
@@ -11071,7 +12127,7 @@
         <f>C8*C8</f>
         <v>252004</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <v>-12.52634698</v>
       </c>
       <c r="N8">
@@ -11087,7 +12143,7 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>-3.2155197337147688E-2</v>
       </c>
@@ -11098,7 +12154,7 @@
       <c r="C9">
         <v>503</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
@@ -11110,7 +12166,7 @@
         <f>C9*C9</f>
         <v>253009</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="9">
         <v>-12.52634698</v>
       </c>
       <c r="N9">
@@ -11126,7 +12182,7 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="13">
+      <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>-3.3192461767378237E-2</v>
       </c>
@@ -11137,7 +12193,7 @@
       <c r="C10">
         <v>504</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
@@ -11149,7 +12205,7 @@
         <f>C10*C10</f>
         <v>254016</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="9">
         <v>-12.52634698</v>
       </c>
       <c r="N10">
@@ -11165,7 +12221,7 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>-0.23984230438363666</v>
       </c>
@@ -11176,7 +12232,7 @@
       <c r="C11">
         <v>511</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <f t="shared" si="2"/>
         <v>0.22580645161290322</v>
       </c>
@@ -11188,7 +12244,7 @@
         <f>C11*C11</f>
         <v>261121</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="9">
         <v>-12.52634698</v>
       </c>
       <c r="N11">
@@ -11204,7 +12260,7 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>-0.37800031382121524</v>
       </c>
@@ -11215,7 +12271,7 @@
       <c r="C12">
         <v>520</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <f t="shared" si="2"/>
         <v>0.29032258064516131</v>
       </c>
@@ -11227,7 +12283,7 @@
         <f>C12*C12</f>
         <v>270400</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="9">
         <v>-12.52634698</v>
       </c>
       <c r="N12">
@@ -11243,7 +12299,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>-5.4193593379385716E-2</v>
       </c>
@@ -11254,7 +12310,7 @@
       <c r="C13">
         <v>521</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
@@ -11266,7 +12322,7 @@
         <f>C13*C13</f>
         <v>271441</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="9">
         <v>-12.52634698</v>
       </c>
       <c r="N13">
@@ -11282,7 +12338,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="13">
+      <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>-5.5941773810978646E-2</v>
       </c>
@@ -11293,7 +12349,7 @@
       <c r="C14">
         <v>522</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
@@ -11305,7 +12361,7 @@
         <f>C14*C14</f>
         <v>272484</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="9">
         <v>-12.52634698</v>
       </c>
       <c r="N14">
@@ -11321,7 +12377,7 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="13">
+      <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>-0.14534710901642048</v>
       </c>
@@ -11331,7 +12387,7 @@
       <c r="C15">
         <v>531</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <f t="shared" si="2"/>
         <v>0.29032258064516131</v>
       </c>
@@ -11343,7 +12399,7 @@
         <f>C15*C15</f>
         <v>281961</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="9">
         <v>-12.52634698</v>
       </c>
       <c r="N15">
@@ -11372,7 +12428,7 @@
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="13">
         <f>B17/C17</f>
         <v>1</v>
       </c>
@@ -11501,70 +12557,70 @@
       <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:16" ht="18">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="2:16" ht="18">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="2:16" ht="18">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="2:16" ht="18">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="2:16" ht="18">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="2:16" ht="18">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="2:16" ht="18">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="2:16" ht="18">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="2:16" ht="18">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="2:5" ht="18">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="2:5" ht="18">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11573,4 +12629,1298 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C305C65-80FB-7A44-A9EB-C88174E1D296}">
+  <dimension ref="A1:P50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="3">
+        <v>-60</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="K6" s="7">
+        <v>2.0794367170000001E-2</v>
+      </c>
+      <c r="L6">
+        <f>C6*C6</f>
+        <v>40000</v>
+      </c>
+      <c r="M6" s="9">
+        <v>-10.08168264</v>
+      </c>
+      <c r="N6">
+        <f>C6</f>
+        <v>200</v>
+      </c>
+      <c r="O6">
+        <v>1121.5352809999999</v>
+      </c>
+      <c r="P6" s="2">
+        <f>(K6*L6)+(M6*N6)+O6</f>
+        <v>-63.026560199999949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="3">
+        <f>B6-((1+D7)*$C$18)</f>
+        <v>-65.15625</v>
+      </c>
+      <c r="C7">
+        <v>201</v>
+      </c>
+      <c r="D7" s="14">
+        <f>(C7-C6)/(C15-C6)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="K7" s="7">
+        <v>2.0794367170000001E-2</v>
+      </c>
+      <c r="L7">
+        <f>C7*C7</f>
+        <v>40401</v>
+      </c>
+      <c r="M7" s="9">
+        <v>-10.08168264</v>
+      </c>
+      <c r="N7">
+        <f>C7</f>
+        <v>201</v>
+      </c>
+      <c r="O7">
+        <v>1121.5352809999999</v>
+      </c>
+      <c r="P7" s="2">
+        <f>(K7*L7)+(M7*N7)+O7</f>
+        <v>-64.769701604830061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="3">
+        <f t="shared" ref="B8:B14" si="0">B7-((1+D8)*$C$18)</f>
+        <v>-70.131374378109456</v>
+      </c>
+      <c r="C8">
+        <v>202</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" ref="D8:D15" si="1">(C8-C7)/(C16-C7)</f>
+        <v>-4.9751243781094526E-3</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="K8" s="7">
+        <v>2.0794367170000001E-2</v>
+      </c>
+      <c r="L8">
+        <f>C8*C8</f>
+        <v>40804</v>
+      </c>
+      <c r="M8" s="9">
+        <v>-10.08168264</v>
+      </c>
+      <c r="N8">
+        <f>C8</f>
+        <v>202</v>
+      </c>
+      <c r="O8">
+        <v>1121.5352809999999</v>
+      </c>
+      <c r="P8" s="2">
+        <f>(K8*L8)+(M8*N8)+O8</f>
+        <v>-66.471254275320007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>-74.896080260462398</v>
+      </c>
+      <c r="C9">
+        <v>210</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="1"/>
+        <v>-4.7058823529411764E-2</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="K9" s="7">
+        <v>2.0794367170000001E-2</v>
+      </c>
+      <c r="L9">
+        <f>C9*C9</f>
+        <v>44100</v>
+      </c>
+      <c r="M9" s="9">
+        <v>-10.08168264</v>
+      </c>
+      <c r="N9">
+        <f>C9</f>
+        <v>210</v>
+      </c>
+      <c r="O9">
+        <v>1121.5352809999999</v>
+      </c>
+      <c r="P9" s="2">
+        <f>(K9*L9)+(M9*N9)+O9</f>
+        <v>-78.586481202999948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>-79.871690016559953</v>
+      </c>
+      <c r="C10">
+        <v>211</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="1"/>
+        <v>-4.8780487804878049E-3</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="K10" s="7">
+        <v>2.0794367170000001E-2</v>
+      </c>
+      <c r="L10">
+        <f>C10*C10</f>
+        <v>44521</v>
+      </c>
+      <c r="M10" s="9">
+        <v>-10.08168264</v>
+      </c>
+      <c r="N10">
+        <f>C10</f>
+        <v>211</v>
+      </c>
+      <c r="O10">
+        <v>1121.5352809999999</v>
+      </c>
+      <c r="P10" s="2">
+        <f>(K10*L10)+(M10*N10)+O10</f>
+        <v>-79.913735264429988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>-84.847993334095491</v>
+      </c>
+      <c r="C11">
+        <v>212</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="1"/>
+        <v>-4.7393364928909956E-3</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="K11" s="7">
+        <v>2.0794367170000001E-2</v>
+      </c>
+      <c r="L11">
+        <f>C11*C11</f>
+        <v>44944</v>
+      </c>
+      <c r="M11" s="9">
+        <v>-10.08168264</v>
+      </c>
+      <c r="N11">
+        <f>C11</f>
+        <v>212</v>
+      </c>
+      <c r="O11">
+        <v>1121.5352809999999</v>
+      </c>
+      <c r="P11" s="2">
+        <f>(K11*L11)+(M11*N11)+O11</f>
+        <v>-81.199400591519861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>-89.635729183152094</v>
+      </c>
+      <c r="C12">
+        <v>221</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="1"/>
+        <v>-4.2452830188679243E-2</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="K12" s="7">
+        <v>2.0794367170000001E-2</v>
+      </c>
+      <c r="L12">
+        <f>C12*C12</f>
+        <v>48841</v>
+      </c>
+      <c r="M12" s="9">
+        <v>-10.08168264</v>
+      </c>
+      <c r="N12">
+        <f>C12</f>
+        <v>221</v>
+      </c>
+      <c r="O12">
+        <v>1121.5352809999999</v>
+      </c>
+      <c r="P12" s="2">
+        <f>(K12*L12)+(M12*N12)+O12</f>
+        <v>-90.8988954900301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>-94.432109273649829</v>
+      </c>
+      <c r="C13">
+        <v>230</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="1"/>
+        <v>-4.072398190045249E-2</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="K13" s="7">
+        <v>2.0794367170000001E-2</v>
+      </c>
+      <c r="L13">
+        <f>C13*C13</f>
+        <v>52900</v>
+      </c>
+      <c r="M13" s="9">
+        <v>-10.08168264</v>
+      </c>
+      <c r="N13">
+        <f>C13</f>
+        <v>230</v>
+      </c>
+      <c r="O13">
+        <v>1121.5352809999999</v>
+      </c>
+      <c r="P13" s="2">
+        <f>(K13*L13)+(M13*N13)+O13</f>
+        <v>-97.229702907000046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>-99.410370143215047</v>
+      </c>
+      <c r="C14">
+        <v>231</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="1"/>
+        <v>-4.3478260869565218E-3</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="K14" s="7">
+        <v>2.1188039660000001E-2</v>
+      </c>
+      <c r="L14">
+        <f>C14*C14</f>
+        <v>53361</v>
+      </c>
+      <c r="M14" s="9">
+        <v>-10.38623254</v>
+      </c>
+      <c r="N14">
+        <f>C14</f>
+        <v>231</v>
+      </c>
+      <c r="O14">
+        <v>1158.5590709999999</v>
+      </c>
+      <c r="P14" s="2">
+        <f>(K14*L14)+(M14*N14)+O14</f>
+        <v>-110.04566144274008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="3">
+        <v>-100</v>
+      </c>
+      <c r="C15">
+        <v>232</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="1"/>
+        <v>-3.2258064516129031E-2</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="K15" s="7">
+        <v>2.1188039660000001E-2</v>
+      </c>
+      <c r="L15">
+        <f>C15*C15</f>
+        <v>53824</v>
+      </c>
+      <c r="M15" s="9">
+        <v>-10.38623254</v>
+      </c>
+      <c r="N15">
+        <f>C15</f>
+        <v>232</v>
+      </c>
+      <c r="O15">
+        <v>1158.5590709999999</v>
+      </c>
+      <c r="P15" s="2">
+        <f>(K15*L15)+(M15*N15)+O15</f>
+        <v>-110.62183162016004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="3">
+        <f>-B15-B6</f>
+        <v>160</v>
+      </c>
+      <c r="C17">
+        <f>C15-C6</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <f>B17/C17</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <f>40/9</f>
+        <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="4"/>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="4"/>
+      <c r="C24">
+        <v>201</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-65.15625</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="4"/>
+      <c r="C25">
+        <v>202</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-70.131374378109456</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="4"/>
+      <c r="C26">
+        <v>210</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-74.896080260462398</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="4"/>
+      <c r="C27">
+        <v>211</v>
+      </c>
+      <c r="D27" s="4">
+        <v>-79.871690016559953</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="4"/>
+      <c r="C28">
+        <v>212</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-84.847993334095491</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="4"/>
+      <c r="C29">
+        <v>221</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-89.635729183152094</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="4"/>
+      <c r="C30">
+        <v>230</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-94.432109273649829</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="4"/>
+      <c r="C31">
+        <v>231</v>
+      </c>
+      <c r="D31" s="4">
+        <v>-99.410370143215047</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="C32">
+        <v>232</v>
+      </c>
+      <c r="D32">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="P37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="2:16" ht="18">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="2:16" ht="18">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="2:16" ht="18">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="2:16" ht="18">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="2:16" ht="18">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="2:16" ht="18">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="2:16" ht="18">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="2:16" ht="18">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="2:16" ht="18">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="2:5" ht="18">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="2:5" ht="18">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{3266D504-249A-F946-B1AE-FDF4CBECDA8B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BE029D-EF84-D446-A9FC-E89DB30DB251}">
+  <dimension ref="A1:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="3">
+        <v>-120</v>
+      </c>
+      <c r="C6">
+        <v>600</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="K6" s="7">
+        <v>-5.6780329890000002E-2</v>
+      </c>
+      <c r="L6">
+        <f>C6*C6</f>
+        <v>360000</v>
+      </c>
+      <c r="M6" s="9">
+        <v>68.482734269999995</v>
+      </c>
+      <c r="N6">
+        <f>C6</f>
+        <v>600</v>
+      </c>
+      <c r="O6" s="8">
+        <v>-20770.321</v>
+      </c>
+      <c r="P6" s="2">
+        <f>(K6*L6)+(M6*N6)+O6</f>
+        <v>-121.59919840000657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="14">
+        <f>(B7-B6)/(-$B$16+$B$6)</f>
+        <v>-4.7520661157024809E-2</v>
+      </c>
+      <c r="B7" s="3">
+        <f>B6-((1+D7)*$C$19)</f>
+        <v>-121.42561983471074</v>
+      </c>
+      <c r="C7">
+        <v>601</v>
+      </c>
+      <c r="D7" s="14">
+        <f>(C7-C6)/($C$16-$C$6)</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="K7" s="7">
+        <v>-5.6780329890000002E-2</v>
+      </c>
+      <c r="L7">
+        <f>C7*C7</f>
+        <v>361201</v>
+      </c>
+      <c r="M7" s="9">
+        <v>68.482734269999995</v>
+      </c>
+      <c r="N7">
+        <f>C7</f>
+        <v>601</v>
+      </c>
+      <c r="O7" s="8">
+        <v>-20770.321</v>
+      </c>
+      <c r="P7" s="2">
+        <f>(K7*L7)+(M7*N7)+O7</f>
+        <v>-121.3096403278978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="14">
+        <f t="shared" ref="A8:A15" si="0">(B8-B7)/(-$B$16+$B$6)</f>
+        <v>-4.7520661157024809E-2</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" ref="B8:B15" si="1">B7-((1+D8)*$C$19)</f>
+        <v>-122.85123966942149</v>
+      </c>
+      <c r="C8">
+        <v>602</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" ref="D8:D16" si="2">(C8-C7)/($C$16-$C$6)</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="K8" s="7">
+        <v>-5.6780329890000002E-2</v>
+      </c>
+      <c r="L8">
+        <f>C8*C8</f>
+        <v>362404</v>
+      </c>
+      <c r="M8" s="9">
+        <v>68.482734269999995</v>
+      </c>
+      <c r="N8">
+        <f>C8</f>
+        <v>602</v>
+      </c>
+      <c r="O8" s="8">
+        <v>-20770.321</v>
+      </c>
+      <c r="P8" s="2">
+        <f>(K8*L8)+(M8*N8)+O8</f>
+        <v>-121.13364291556718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="14">
+        <f t="shared" si="0"/>
+        <v>-6.4049586776859735E-2</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>-124.77272727272728</v>
+      </c>
+      <c r="C9">
+        <v>611</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="2"/>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="K9" s="7">
+        <v>-5.6780329890000002E-2</v>
+      </c>
+      <c r="L9">
+        <f>C9*C9</f>
+        <v>373321</v>
+      </c>
+      <c r="M9" s="9">
+        <v>68.482734269999995</v>
+      </c>
+      <c r="N9">
+        <f>C9</f>
+        <v>611</v>
+      </c>
+      <c r="O9" s="8">
+        <v>-20770.321</v>
+      </c>
+      <c r="P9" s="2">
+        <f>(K9*L9)+(M9*N9)+O9</f>
+        <v>-124.65989589469245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.7520661157024809E-2</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>-126.19834710743802</v>
+      </c>
+      <c r="C10">
+        <v>612</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="2"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="K10" s="7">
+        <v>-5.6780329890000002E-2</v>
+      </c>
+      <c r="L10">
+        <f>C10*C10</f>
+        <v>374544</v>
+      </c>
+      <c r="M10" s="9">
+        <v>68.482734269999995</v>
+      </c>
+      <c r="N10">
+        <f>C10</f>
+        <v>612</v>
+      </c>
+      <c r="O10" s="8">
+        <v>-20770.321</v>
+      </c>
+      <c r="P10" s="2">
+        <f>(K10*L10)+(M10*N10)+O10</f>
+        <v>-125.61950508016162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.7520661157024809E-2</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>-127.62396694214877</v>
+      </c>
+      <c r="C11">
+        <v>613</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="2"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="K11" s="7">
+        <v>-5.6780329890000002E-2</v>
+      </c>
+      <c r="L11">
+        <f>C11*C11</f>
+        <v>375769</v>
+      </c>
+      <c r="M11" s="9">
+        <v>68.482734269999995</v>
+      </c>
+      <c r="N11">
+        <f>C11</f>
+        <v>613</v>
+      </c>
+      <c r="O11" s="8">
+        <v>-20770.321</v>
+      </c>
+      <c r="P11" s="2">
+        <f>(K11*L11)+(M11*N11)+O11</f>
+        <v>-126.69267492541258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.9586776859503821E-2</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>-129.11157024793388</v>
+      </c>
+      <c r="C12">
+        <v>615</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="K12" s="7">
+        <v>-5.6780329890000002E-2</v>
+      </c>
+      <c r="L12">
+        <f>C12*C12</f>
+        <v>378225</v>
+      </c>
+      <c r="M12" s="9">
+        <v>68.482734269999995</v>
+      </c>
+      <c r="N12">
+        <f>C12</f>
+        <v>615</v>
+      </c>
+      <c r="O12" s="8">
+        <v>-20770.321</v>
+      </c>
+      <c r="P12" s="2">
+        <f>(K12*L12)+(M12*N12)+O12</f>
+        <v>-129.17969659524897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.7520661157024809E-2</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>-130.53719008264463</v>
+      </c>
+      <c r="C13">
+        <v>616</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="2"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="K13" s="7">
+        <v>-5.6780329890000002E-2</v>
+      </c>
+      <c r="L13">
+        <f>C13*C13</f>
+        <v>379456</v>
+      </c>
+      <c r="M13" s="9">
+        <v>68.482734269999995</v>
+      </c>
+      <c r="N13">
+        <f>C13</f>
+        <v>616</v>
+      </c>
+      <c r="O13" s="8">
+        <v>-20770.321</v>
+      </c>
+      <c r="P13" s="2">
+        <f>(K13*L13)+(M13*N13)+O13</f>
+        <v>-130.59354841984532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="14">
+        <f t="shared" si="0"/>
+        <v>-5.3719008264462784E-2</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="1"/>
+        <v>-132.14876033057851</v>
+      </c>
+      <c r="C14">
+        <v>620</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="2"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="K14" s="7">
+        <v>-5.6780329890000002E-2</v>
+      </c>
+      <c r="L14">
+        <f>C14*C14</f>
+        <v>384400</v>
+      </c>
+      <c r="M14" s="9">
+        <v>68.482734269999995</v>
+      </c>
+      <c r="N14">
+        <f>C14</f>
+        <v>620</v>
+      </c>
+      <c r="O14" s="8">
+        <v>-20770.321</v>
+      </c>
+      <c r="P14" s="2">
+        <f>(K14*L14)+(M14*N14)+O14</f>
+        <v>-137.38456231600139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.7520661157024809E-2</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="1"/>
+        <v>-133.57438016528926</v>
+      </c>
+      <c r="C15">
+        <v>621</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="2"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="K15" s="7">
+        <v>-5.6780329890000002E-2</v>
+      </c>
+      <c r="L15">
+        <f>C15*C15</f>
+        <v>385641</v>
+      </c>
+      <c r="M15" s="9">
+        <v>68.482734269999995</v>
+      </c>
+      <c r="N15">
+        <f>C15</f>
+        <v>621</v>
+      </c>
+      <c r="O15" s="8">
+        <v>-20770.321</v>
+      </c>
+      <c r="P15" s="2">
+        <f>(K15*L15)+(M15*N15)+O15</f>
+        <v>-139.36621743949217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3">
+        <v>-150</v>
+      </c>
+      <c r="C16">
+        <v>622</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="2"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="K16" s="7">
+        <v>-5.6780329890000002E-2</v>
+      </c>
+      <c r="L16">
+        <f>C16*C16</f>
+        <v>386884</v>
+      </c>
+      <c r="M16" s="9">
+        <v>68.482734269999995</v>
+      </c>
+      <c r="N16">
+        <f>C16</f>
+        <v>622</v>
+      </c>
+      <c r="O16" s="8">
+        <v>-20770.321</v>
+      </c>
+      <c r="P16" s="2">
+        <f>(K16*L16)+(M16*N16)+O16</f>
+        <v>-141.46143322276112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="3">
+        <f>-B16+B6</f>
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <f>C16-C6</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="13">
+        <f>B18/C18</f>
+        <v>1.3636363636363635</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <f>40/9</f>
+        <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="4"/>
+      <c r="C24">
+        <f>C6</f>
+        <v>600</v>
+      </c>
+      <c r="D24" s="4">
+        <f>B6</f>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="4"/>
+      <c r="C25">
+        <f t="shared" ref="C25:C34" si="3">C7</f>
+        <v>601</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:D33" si="4">B7</f>
+        <v>-121.42561983471074</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="4"/>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>602</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="4"/>
+        <v>-122.85123966942149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="4"/>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>611</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="4"/>
+        <v>-124.77272727272728</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="4"/>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>612</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="4"/>
+        <v>-126.19834710743802</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="4"/>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>613</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="4"/>
+        <v>-127.62396694214877</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="4"/>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>615</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="4"/>
+        <v>-129.11157024793388</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="4"/>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>616</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="4"/>
+        <v>-130.53719008264463</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="4"/>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>620</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="4"/>
+        <v>-132.14876033057851</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>621</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="4"/>
+        <v>-133.57438016528926</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>622</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" ref="D34" si="5">B16</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="P38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="2:16" ht="18">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="2:16" ht="18">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="2:16" ht="18">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="2:16" ht="18">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="2:16" ht="18">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="2:16" ht="18">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="2:16" ht="18">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="2:16" ht="18">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="2:5" ht="18">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="2:5" ht="18">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="2:5" ht="18">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{28387F71-A2A7-154C-82E6-2CB2C3EBA65A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>